--- a/testCase/sqszyyadmin/doctorManage.xlsx
+++ b/testCase/sqszyyadmin/doctorManage.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725" activeTab="1"/>
@@ -15,7 +15,7 @@
     <sheet name="moveTopDoctor" sheetId="6" r:id="rId6"/>
     <sheet name="moveUpDoctor" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -88,9 +88,6 @@
     <t>无</t>
   </si>
   <si>
-    <t>delete from doctors where hospital_id='sqsrmyyadmin' and doctor_name like '宁璟%';</t>
-  </si>
-  <si>
     <t>医生管理-置顶新增的医生</t>
   </si>
   <si>
@@ -114,6 +111,10 @@
   </si>
   <si>
     <t>ehospital2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from doctors where hospital_id='sqszyyadmin' and doctor_name like '宁璟%';</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1204,7 +1205,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1232,7 +1233,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>19</v>
@@ -1252,10 +1253,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1328,7 +1329,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>13</v>
@@ -1400,7 +1401,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -1440,12 +1441,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>13</v>
@@ -1490,7 +1491,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>13</v>
@@ -1532,7 +1533,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>13</v>

--- a/testCase/sqszyyadmin/doctorManage.xlsx
+++ b/testCase/sqszyyadmin/doctorManage.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
   <si>
     <t>caseName</t>
   </si>
@@ -79,9 +79,6 @@
     <t>17621851286@qq.com</t>
   </si>
   <si>
-    <t>sql</t>
-  </si>
-  <si>
     <t>数据库操作-删除新增的医生</t>
   </si>
   <si>
@@ -106,16 +103,19 @@
     <t>上移医生成功</t>
   </si>
   <si>
-    <t>databaseName</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ehospital2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from doctors where hospital_id='sqszyyadmin' and doctor_name like '宁璟%';</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>tableName</t>
+  </si>
+  <si>
+    <t>conditionKey</t>
+  </si>
+  <si>
+    <t>conditionValue</t>
+  </si>
+  <si>
+    <t>doctors</t>
+  </si>
+  <si>
+    <t>doctor_name</t>
   </si>
 </sst>
 </file>
@@ -1202,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1215,11 +1215,12 @@
     <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="83.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,30 +1234,36 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1329,7 +1336,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>13</v>
@@ -1401,7 +1408,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -1441,12 +1448,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>13</v>
@@ -1491,7 +1498,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>13</v>
@@ -1533,7 +1540,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>13</v>
